--- a/IoT.xlsx
+++ b/IoT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
   <si>
     <t>衣服</t>
   </si>
@@ -40,6 +40,9 @@
     <t>品牌</t>
   </si>
   <si>
+    <t>种类</t>
+  </si>
+  <si>
     <t>作者</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Veromoda</t>
   </si>
   <si>
+    <t>酱油</t>
+  </si>
+  <si>
     <t>海天</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>黄</t>
   </si>
   <si>
+    <t>千禾</t>
+  </si>
+  <si>
     <t>蓝</t>
   </si>
   <si>
@@ -103,6 +112,12 @@
     <t>LEDIN</t>
   </si>
   <si>
+    <t>味精</t>
+  </si>
+  <si>
+    <t>太太乐</t>
+  </si>
+  <si>
     <t>万卷出版社</t>
   </si>
   <si>
@@ -127,7 +142,7 @@
     <t>黑</t>
   </si>
   <si>
-    <t>王守义</t>
+    <t>莲花</t>
   </si>
   <si>
     <t>哈珀·李</t>
@@ -142,7 +157,17 @@
     <t>灰</t>
   </si>
   <si>
+    <t>国莎</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>萨默塞特</t>
     </r>
     <r>
@@ -169,13 +194,25 @@
     <t>吉林大学出版社</t>
   </si>
   <si>
+    <t>食盐</t>
+  </si>
+  <si>
+    <t>中盐</t>
+  </si>
+  <si>
     <t>路易莎·梅·奥尔科特</t>
   </si>
   <si>
     <t>北京理工大学出版社</t>
   </si>
   <si>
+    <t>双晶</t>
+  </si>
+  <si>
     <t>弗朗西斯·霍奇森·班纳特</t>
+  </si>
+  <si>
+    <t>淮盐</t>
   </si>
   <si>
     <t>安托万·德·圣埃克苏佩里</t>
@@ -213,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,59 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +312,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +349,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,16 +386,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,61 +423,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,54 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,66 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,39 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -639,17 +652,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +679,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,15 +1193,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,11 +1213,12 @@
         <v>1</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="J1" t="s">
+      <c r="I1" s="1"/>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1200,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1214,512 +1252,560 @@
       <c r="M2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
         <v>44</v>
       </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="G15">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
-        <v>49</v>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16">
+        <v>61</v>
+      </c>
+      <c r="K16">
         <v>14</v>
       </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17">
+        <v>62</v>
+      </c>
+      <c r="K17">
         <v>15</v>
       </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1727,16 +1813,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1744,16 +1830,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1761,16 +1847,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1778,16 +1864,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1795,16 +1881,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1812,16 +1898,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1829,16 +1915,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1846,16 +1932,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1863,16 +1949,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1880,16 +1966,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1897,16 +1983,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1914,16 +2000,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1931,16 +2017,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1948,16 +2034,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1965,16 +2051,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1982,16 +2068,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1999,16 +2085,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2016,16 +2102,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2033,16 +2119,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2050,16 +2136,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2067,22 +2153,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
